--- a/src/he/research.xlsx
+++ b/src/he/research.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -1047,8 +1047,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,19 +1096,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1218,6 +1206,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1252,6 +1241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1427,14 +1417,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>296</v>
       </c>
@@ -1451,7 +1443,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1460,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1488,7 +1480,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +1497,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1525,7 +1517,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +1534,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +1548,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1562,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1576,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1590,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1612,7 +1604,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1626,7 +1618,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1640,7 +1632,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1654,7 +1646,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1668,7 +1660,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1682,7 +1674,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1688,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1710,7 +1702,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1724,7 +1716,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1741,7 +1733,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1761,7 +1753,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1781,7 +1773,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1798,7 +1790,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1812,7 +1804,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1826,7 +1818,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1843,7 +1835,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1857,7 +1849,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1871,7 +1863,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1885,7 +1877,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1899,7 +1891,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1913,7 +1905,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1927,7 +1919,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1941,7 +1933,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1955,7 +1947,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1969,7 +1961,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1983,35 +1975,35 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N37" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N38" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2025,7 +2017,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2039,7 +2031,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2068,7 +2060,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2088,7 +2080,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2108,7 +2100,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2128,7 +2120,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2148,7 +2140,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2168,7 +2160,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2188,7 +2180,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2208,7 +2200,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2228,7 +2220,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2248,7 +2240,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2268,7 +2260,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2288,7 +2280,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2308,7 +2300,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2328,7 +2320,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2348,7 +2340,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2368,7 +2360,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2388,7 +2380,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2408,7 +2400,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2428,7 +2420,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2448,7 +2440,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2468,7 +2460,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2488,7 +2480,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2508,7 +2500,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2528,7 +2520,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2548,7 +2540,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2568,7 +2560,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2594,7 +2586,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2605,7 +2597,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2616,7 +2608,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2624,7 +2616,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2638,7 +2630,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2652,7 +2644,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2666,7 +2658,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2677,7 +2669,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2688,7 +2680,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2699,7 +2691,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2707,7 +2699,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2718,7 +2710,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2732,7 +2724,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2746,7 +2738,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2760,7 +2752,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2774,7 +2766,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2785,7 +2777,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2793,7 +2785,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2823,14 +2815,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2841,7 +2835,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2855,7 +2849,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2866,7 +2860,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2880,7 +2874,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +2885,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2899,7 +2893,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2907,7 +2901,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2915,7 +2909,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2926,7 +2920,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2937,7 +2931,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2948,7 +2942,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2959,7 +2953,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2970,7 +2964,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2981,7 +2975,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2989,7 +2983,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2997,7 +2991,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3008,7 +3002,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3016,7 +3010,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3027,7 +3021,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3041,7 +3035,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3055,7 +3049,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3066,7 +3060,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3080,7 +3074,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3091,7 +3085,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3102,7 +3096,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3110,7 +3104,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3118,7 +3112,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3126,7 +3120,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3134,7 +3128,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3142,7 +3136,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3153,7 +3147,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3161,7 +3155,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3169,7 +3163,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3177,7 +3171,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3185,23 +3179,23 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3209,7 +3203,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3217,7 +3211,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3234,7 +3228,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3245,7 +3239,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3259,7 +3253,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3270,7 +3264,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3278,7 +3272,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3295,7 +3289,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3309,7 +3303,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3323,7 +3317,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3337,7 +3331,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3351,7 +3345,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3365,7 +3359,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3379,7 +3373,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3393,7 +3387,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3407,7 +3401,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3424,7 +3418,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3441,7 +3435,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3455,7 +3449,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3469,7 +3463,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3483,7 +3477,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3494,7 +3488,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3505,7 +3499,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3516,7 +3510,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3527,7 +3521,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3538,7 +3532,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3549,7 +3543,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3560,7 +3554,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3574,7 +3568,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3582,7 +3576,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3590,7 +3584,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3598,7 +3592,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3606,7 +3600,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3620,7 +3614,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3631,7 +3625,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3642,7 +3636,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3651,7 +3645,7 @@
       </c>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3662,7 +3656,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3670,7 +3664,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3678,7 +3672,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3692,7 +3686,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3706,7 +3700,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3720,7 +3714,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3734,7 +3728,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3742,7 +3736,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3750,7 +3744,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3759,8 +3753,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:N1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="B38:N1048576 C37:N37 B1:N35 D36:N36 B36:B37">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B74" r:id="rId1"/>
@@ -3781,14 +3775,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -3796,7 +3792,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -3804,7 +3800,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -3812,7 +3808,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -3820,7 +3816,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -3828,7 +3824,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -3836,7 +3832,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -3844,7 +3840,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -3852,7 +3848,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -3860,7 +3856,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -3868,7 +3864,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -3876,7 +3872,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -3884,7 +3880,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -3892,7 +3888,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -3900,7 +3896,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -3908,7 +3904,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -3916,7 +3912,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -3924,7 +3920,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -3932,7 +3928,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -3940,7 +3936,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3948,7 +3944,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -3956,7 +3952,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -3964,7 +3960,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -3972,7 +3968,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -3980,7 +3976,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -3988,7 +3984,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3996,7 +3992,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -4004,7 +4000,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -4012,7 +4008,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -4020,7 +4016,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -4028,7 +4024,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -4036,7 +4032,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -4044,7 +4040,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -4052,7 +4048,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -4060,7 +4056,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -4068,23 +4064,23 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -4092,7 +4088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -4100,7 +4096,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -4108,7 +4104,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -4116,7 +4112,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -4124,7 +4120,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -4132,7 +4128,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -4140,7 +4136,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -4148,7 +4144,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -4156,7 +4152,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -4164,7 +4160,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -4172,7 +4168,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -4180,7 +4176,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -4188,7 +4184,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>134</v>
       </c>
@@ -4196,7 +4192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>135</v>
       </c>
@@ -4204,7 +4200,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -4212,7 +4208,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -4220,7 +4216,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>138</v>
       </c>
@@ -4228,7 +4224,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>139</v>
       </c>
@@ -4236,7 +4232,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>140</v>
       </c>
@@ -4244,7 +4240,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -4252,7 +4248,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -4260,7 +4256,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -4268,7 +4264,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>144</v>
       </c>
@@ -4276,7 +4272,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>145</v>
       </c>
@@ -4284,7 +4280,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>146</v>
       </c>
@@ -4292,7 +4288,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>147</v>
       </c>
@@ -4300,7 +4296,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -4308,7 +4304,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -4316,7 +4312,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -4324,7 +4320,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -4332,7 +4328,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -4340,7 +4336,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -4348,7 +4344,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>154</v>
       </c>
@@ -4356,7 +4352,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -4364,7 +4360,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>156</v>
       </c>
@@ -4372,7 +4368,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -4380,7 +4376,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -4388,7 +4384,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -4396,7 +4392,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -4404,7 +4400,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -4412,7 +4408,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>162</v>
       </c>
@@ -4420,7 +4416,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -4428,7 +4424,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -4436,7 +4432,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>165</v>
       </c>
@@ -4444,7 +4440,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -4452,7 +4448,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -4462,7 +4458,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B84">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B74" r:id="rId1"/>
